--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/42_K.Maraş_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/42_K.Maraş_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C99E1F7-B510-4E46-9F73-63F457D63AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B823947-5E10-44E2-A054-9C04F131C679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{C010CA75-80E1-491B-8ACA-539DC9B9198F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{A1EA095F-EF59-4D81-9C47-56CF61EFCBC2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -923,10 +923,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F68F644C-0F03-44DC-8C82-9A8C615282E6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="3" xr:uid="{82039E4A-4CA9-418B-89E8-FB9D113A58E9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="4" xr:uid="{3371FBF5-3C9C-4F33-8F0E-196F29873569}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="5" xr:uid="{EAFBE3E4-D3FA-415F-8F72-23D58EAE0A55}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{58E7BD99-A92C-452E-9795-9DE1EFB3CCAB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="3" xr:uid="{7FB67B3B-C1DD-44DD-8782-B6CBECF8E765}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="4" xr:uid="{7A6321C8-10BE-4A20-B91B-FF179CDCE663}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="5" xr:uid="{D09F559F-1BBB-4989-937D-D0DC78F72D69}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6352ABEB-4166-4681-A21D-5ADD1B22C1A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E693DF-2EE3-47E6-95D9-2B308CF0FFF6}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2550,18 +2550,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF54C104-A3EC-4FC7-98FE-D1D9EE39B30B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDDB25D5-8336-43D7-8EC9-904BC590620F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C075DAC4-34B5-4D8F-8809-7193AEA767C7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C6DE9E8-7692-43C2-B9D5-854136209C7C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CA4152A2-AD47-4D68-91AC-224D87F03F87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8EDF48A1-3C61-4F9B-8575-6F88612F1783}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDC142B4-29A4-4142-BA63-621C45D11D41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE6D8833-B690-4E98-92CD-4FC33910E92A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1830F8C-4D8C-45E6-A2F8-6492627EE811}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB5D2E08-BC95-47B7-B532-9C6445C73752}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F94AE1C-C21D-47B7-BD78-95BF8E9EF458}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B79A3A49-B55B-45F5-84CF-3C7C107CA4D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7DECA5C9-083C-41F2-8156-A36EDD5C8433}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7FF4837-64F5-49B0-96D3-79E23C5DA437}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{599C4884-62EA-4EB2-B19C-629967B98478}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{081E3BEB-0959-456C-BCFA-64880DB5DA0F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0D870A74-FB53-4AE8-A577-0573CC1F10C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC2BB7DC-E866-4921-A313-BA224F7E6127}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D535EACD-30CF-4D9B-8ECF-47074EA42A04}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20BC4CBF-D9FD-4C9E-B41C-1AE4AE5974FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F0BF952-6473-4591-ACA4-F1B98CABF117}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{43008C8F-BE2D-4229-8710-6F22D3B9A678}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3468B4FC-6069-4FF6-9904-7DC78EF28E3A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{669E7CBE-8921-4C49-BBF4-F4A1D15861DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2574,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB8D7B0-7D1A-4FB9-9005-D77217A16D5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A095DB70-433C-451C-9844-8E0277FBD112}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3818,18 +3818,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{537FBFD3-0F10-46AE-BC49-E28ADF40A453}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A03C499-AE23-4B6C-9F85-CD113131FEC8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7D9E08B9-0236-4383-8E23-21EC8069AE91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3AA700F5-BC05-48F0-98F0-0121E458B541}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F32B751C-F1AA-46DC-9BCF-10B08FE24020}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D52E9B4C-9DC0-49E8-9A07-BF1AA1F4F41D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C5BD961-E9B9-4A15-936E-5E210B03056A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00904C9B-23E1-422D-9735-34D14FAEA515}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43474B58-5C78-435F-920A-389892E7C7FC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C5C03399-6795-4EF5-9098-06B86237B4DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CD4BF14-22CF-4D61-ADB5-6352524A7EFE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75402330-04CC-4E5E-A7B7-B8F82F8A9E77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8DEAAE19-40D4-4652-9B1E-DAC4A96D2039}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52DB0806-7511-40C2-ADE9-6B503795C07A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0BB7D806-32D8-44EE-84A8-F6415F323B8C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30DCB95F-6131-4192-92F7-3F894D9BC9AC}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B2B8B581-D2A7-4F9E-A633-23E1E7139D78}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE49807F-2E9F-4474-A5D1-40B7C2CFF667}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAD625AE-04A5-4DA4-90C9-F33F2CC4DE64}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45856CC1-3BD5-42AE-8728-C620C8A86917}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E879DA40-B1A8-4E24-B357-2BC5BFB4F905}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{051F7328-510B-4178-BA69-AF512233B04E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19F29111-CF60-4237-B757-2BFE283510A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A03A1AE6-8F00-45E0-86C0-CB495221B1C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3842,7 +3842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8BE750-5A1A-4535-9668-855C9FAB1E4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A026306-87A0-404A-B71C-0411BBE29FDF}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5086,18 +5086,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85D240CB-F1A0-431C-AFD7-3662703DA8F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4AC92CA-5FD9-4404-AC11-50E2420CDEA7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E876F032-936D-491A-9548-FE1EB8CC2291}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66754A5D-38C6-4B06-AD0F-BCEEF063A61A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DBBD0E0A-0148-456E-8306-632800759299}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D84D053-510B-4BA9-A543-97FE0627522A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0616F5F9-DB43-4B9E-A08B-5FF479E48A78}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29AE0124-DC3A-4CA9-8244-77D8089690E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CF70EDE-A273-46E8-97FA-8EB3F4A76252}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5F3F95A-777E-492E-ACC9-72DC21A5C858}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63151811-3471-4599-9CCF-4F273A2A275F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{731FB7AE-1982-47D9-B3B7-153B6CE74BD9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A1A9AF7-9374-46EB-9B32-0D8177694BAB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4D2D73A-5C10-4EE6-B56D-704D6B84D15A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EDBB5DE9-4F01-4C10-84E1-D9683B181F5F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB28FF69-C513-46A9-8624-3F8947B8A8C8}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{929951D4-C8D6-48E2-9A45-FEF6CEF4BA4E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{13C75CB2-0A67-4BEE-9B03-A20EACF2FD1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{68790570-9C3B-4B42-823A-A71DFD4D2ABC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C932EB1F-BB48-4AAC-8596-A3566FBB202A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF429688-ACC8-474D-BCA7-D003279793A8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65F4F763-2D70-4562-8852-0D844B5793AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E40F071B-57E2-45E8-8F20-1E6A46C110CA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{096221FD-DF6D-4611-BBA7-75DEE071BBE5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5110,7 +5110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34483360-2C86-4D1F-9EA4-40C9EDFA737A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF30702-7ED7-43F0-B24E-9D3F5C37D7A3}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6354,18 +6354,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B1088EB-BF6C-4B2E-B9E7-6B7F183C66EC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18909361-1935-4CD7-97E0-34FF0611F59F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71AFDC61-8FBF-412B-B141-4BDFD1A1D903}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E12B6CBB-DB98-4E6E-9A4B-E1DA2667D0C3}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0E50C775-7C20-4FF8-990B-7233BE26BA6D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6343FB82-13EF-4DAE-9FC1-99C4B8FC8442}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F82F1DF-0135-48D1-A623-F5BF7FEBEF24}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B56084A-7B9D-484D-83C0-1BE4942469D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C540C64-A3CB-427D-B271-6DABE4F67E0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92C7ED50-AD89-4EFC-8089-E57A19E24E84}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B60498C-9A6A-4482-9D13-654E0FCDD45F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2635E3F0-ADAA-4AF9-928C-434EEFEF6CE2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6692B91-E64B-4FD8-AECD-3371355F47EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F15F9FD-F61F-4499-8794-DAC9E9765A4F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{892273B9-2476-4D90-B47E-33212360584D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A7967F6-C11F-4019-A896-FC8763B1B493}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BB55D9F7-BFE5-427F-AA33-36DF4CF004C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D822EF4-C851-46F5-8959-3AA9F03D44F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8429140C-1692-4196-813F-E14EF48D6941}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFEBD6CF-90CA-41FB-92CD-C7B261379D5B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{452E141B-7727-419D-A5E5-F9F4F8A569AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF4FD35A-EE2B-4CFD-B5C3-521F7853B5A5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8062FFD1-C2BA-412D-8E9E-2B9E9B0E19BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9EA75D9-B7FA-48B6-B7B6-A9852D5BABD7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6378,7 +6378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DB2C27-213E-4AB0-A028-CFD9B40CF723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDB7FAA-C809-4CCD-9E14-596CC8B56C0D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7629,18 +7629,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F291B99-EDA9-4785-BF4C-020A497652DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42454300-1A6C-4CF2-8D18-7F1714B8F2A4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0F52CFA3-B9D0-4CCA-B612-419D86211E39}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5BDD568E-73DD-4BC1-A97D-E618BF368AFD}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{58787C40-C63B-4CF3-B118-CAF4597B255A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{07FED114-4462-40FC-8054-8D1FF7399176}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F625058-3A23-45C2-A732-4C21348713A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AE7FB2E-B6BE-44DB-A0FA-2A2BDBA5CA0D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{035C89FE-24C0-4BF6-815C-4A3E780CD8F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65028F17-8F60-41F8-A5FA-2EC945424707}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB935ADB-3AF6-4A68-97C1-1BA043EAB978}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04DC7843-203F-400F-A4F9-5D1AB863AF34}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{761EF0F3-5AC5-4593-AA8D-96433F4D2AAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F77017E1-B200-428E-9DEC-144F75871C93}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6130B5D0-5849-4B3D-97B6-6DAD291113C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9091E918-9733-4A56-A814-0B301428CD73}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{66AC17D1-97D7-4000-8354-FB1359D590FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11ED630E-6E54-4C0A-968B-EEF61CE6297C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3BF0934-3CF1-432E-95BE-46896429BDEE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4942EBFA-572F-408A-A1E8-5FC617FF0FF0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30C46E14-6C31-4C62-BCD3-3CE7CFA7F2D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F9B2F43-397A-4738-A4D9-78470C1E6AEC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41D42D6C-9AB5-4465-BDEC-1F7A3462C7AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E83D8CA8-F158-4EA7-9643-A4D80F009C7D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7653,7 +7653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD08D768-4AA4-456B-9227-74F3FFA1599C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA506048-E8EF-4498-90F8-9FF1F88E0BAB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8904,18 +8904,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D18EAF6-089A-4728-9170-72DE57082BC9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ABC797A0-8EE1-4559-887C-2134E37FBE40}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{474FB146-1C9A-44E6-A57D-6140CF2BDA8C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66CB879D-3CA6-4F95-B9A1-E1E85E89A55C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9D010BFB-B88F-48CF-86C1-E1DBCE71969F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E539BE5-ABEE-4489-A97C-DD9732369B2E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B244D31-04A2-4F8B-A1C1-B07BEB78DD67}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D528F42D-8660-40E8-93BB-0D1C89190692}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4325ACE6-499A-4A6A-94F8-597CC3826687}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CFBD7DD7-DFA3-4D90-BB17-3248C752889B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE372A3A-AC84-415E-841B-A3E4FA0B68F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32971FE7-EBC7-493F-B618-625363D84796}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8F212E2-BCFC-477A-B11A-7D9A27B9753E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FFCE2A79-020F-465B-9D46-8FA3B532F354}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B379A53A-00C6-42B2-907C-E176DE837A05}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B9168B3B-87E9-4156-9D2D-4D011CCFFCAF}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C2C7BBCD-1AA5-453A-8579-CFC723C03301}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{232761F6-1B4B-4114-8BD1-5FAA370D014E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6E2D56C-B280-4E2A-9CB9-2BEA1FFE2DB9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C735F0F6-4258-407B-9A23-743C47C9F349}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1ACC4D3-A6B7-410F-8F2A-2E08A368BE17}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{37FB8482-FE7E-4042-97A5-8F0131A073C8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{53962657-B44A-4893-A25C-1B36D4B2E3A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A09A62F-26D1-4B1B-AD98-55D992FA29BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8928,7 +8928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC1B78C-C62A-4BB5-898C-42A0397E6DD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA402AA8-6B53-492A-8A13-C5B81AEA7B00}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10179,18 +10179,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6378F89-673B-474C-804F-033408A1FF92}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{390CE859-0E15-4E74-B0FA-A0CD70293C47}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A8EF8CD-167F-487F-8364-03EBB82F28D1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D321DBC-D4DA-417B-9FB3-828F75678009}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{28CB1664-C9AF-4B4B-B93F-DEAEE30E492A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C785AC3-0E16-47E1-AEC7-6B83568D740E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDF945D9-94AE-4270-976E-960AEB56A4DC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9620CB6F-B054-4159-8C3D-6825A3A73001}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DEBD46F-207B-466B-B993-9A26696A2CAC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{161EA7FD-F483-4241-B675-8B827341BD7E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75FD3B71-BD1E-4B79-844E-68ADFFA9F41F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ADEEB5D0-780A-47CF-B795-4E4916393DB6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2707EF2-85FE-46FF-84DA-196E687F622A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F324D3F1-72BD-422B-8F5E-1C7986471A3E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{691AF85B-CEFD-48BF-B04C-343698B4E836}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D88896B7-7BBB-4F56-AB00-A4C49C8D926A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E2241967-0535-4FD4-944D-6C5C47DD0C7F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96851E54-1E6A-4094-A6CD-4CD10278B6C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78A5BFDD-C81F-40AC-B788-8ED48FF13E94}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE3AD909-0CC3-4EEB-8F96-3094418D86B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A9393BB7-C94A-4704-94FA-47EDA7178C6D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8AFAB9E-65F2-4FA1-9EF9-B9FE3AB0F856}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{145C1E68-4F7B-4667-A977-07194F0C313A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F6E62B8F-1212-4493-A3C5-50CC07299D78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10203,7 +10203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2AEBA6-284A-4E08-9586-57AB465B4CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2897892C-443E-443C-A6B9-1F9CBAB50516}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11455,18 +11455,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C47E2E0-CB27-4762-80D6-FDF07921C808}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{754CF4A0-7BB0-4BEE-B09E-5D821ED4A2C1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A2205AA-5195-4C6F-9394-BA26B86C0CDF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EDCFBEA2-6016-4647-9927-4A29548430FF}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E5FD6248-45E5-4DB0-B598-8F11DD1B93A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B94AA24-DC82-489B-9E95-7E4C16DF5DDC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FC963EC-82D9-4E2A-B671-ACBE0A5C840A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C1388A8-3551-45BC-B3EE-5D537E48A8D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC2500E8-F955-4A7C-A1B7-E67EF022FD8C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F61F991-530C-4C1B-A96C-5438EA48C07F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4530FA6-AA27-4D65-8303-B2360B431169}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5456D0FA-58EC-462F-988E-A6E65177DEAB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E4CC76C-6292-4C87-B7E7-9A60DC0F3A6A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB219FFA-0FFC-4B01-BBFD-E62E459733C0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B658285-2FA7-4F5A-B964-4DA2D9E9C3D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99595023-99EB-4AE7-B205-DAB67FFAC484}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DB4A5488-4A41-4CDB-B375-DFC8DDB6E96F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C15DB56-D9EC-4B47-9510-DEF9C2B825FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E75196EA-0113-496A-A4D7-A98F62898FE3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA42D808-EC00-47C8-8C2A-3D1A66D43FA7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B03A414-42FD-4AFA-B395-C97D128E6735}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{60EA34FB-9F0D-4448-A1A0-1ADDD6766694}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D59F013F-6A26-49A2-AF45-2E935DA1935D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A25A97B4-7D8C-45BA-A566-15E0F682E7B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11479,7 +11479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FF3B10-5110-48DB-818D-6DEBF03B08B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B815A9-E6CB-4B8F-A199-B45B40F16998}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12731,18 +12731,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21EF8963-D58D-44DD-B66A-61CF9CEA5308}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FFBD4952-60BC-4B3F-96A5-29716478CCD3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9E87FB4-62DF-48A8-B89C-3DD8A3641165}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5941B5D3-7A3F-4057-81EC-8AD7747061AB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EEF79E3F-C638-4E47-B680-17600C6DF23A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{815220E6-A14D-49A4-A76E-BD711FEE93E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E5A8926-32C3-4AC5-9CDE-E95621573758}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9ABD7A6-75B0-4617-997C-E2B1F4578C03}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEA106BE-0A5C-41B7-9F72-7DFB00110260}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6754F26B-287E-4A07-8CEE-BE6AC88E4320}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75CDD3DF-69E0-4A10-B787-B4E4B743DAD5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F639EB7-F560-440B-8942-271DF00DF79E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90DCD3C1-D83A-485C-862E-FD9E6855201C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{825FB9F7-7062-414E-806B-58A8208AA964}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BB52717E-8C28-4058-AA31-0EB6D9166C62}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE8677E3-D6E4-4D7A-AE79-CA4E4BEFC300}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A23204CE-2DD6-48C5-9E1D-4A70A3938A74}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B779B7D-ADF5-49B7-9701-AD7567CB5BB6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F57EBB4-48D4-4755-BC95-1D3119C53471}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8175515C-9F50-47B6-B76D-61CE9658A756}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE3F5F07-EE00-441C-8BD7-087979470730}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE762A15-F89D-4CEC-9B72-FF2C945D1339}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D68EC27D-11FE-4CBF-B166-3C9EC85159A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D915BDE-27CD-4F1F-A707-890F576BD6CE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12755,7 +12755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E41F33-F8A9-4D6F-BECE-B01ABC5147AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913197B1-6ACB-4E86-BFBE-E5F4FE14DB62}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14007,18 +14007,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6202941B-1874-4A0A-8445-2353D3291503}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E37DCA2-A923-4888-8943-A8A12615F5B0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BD4A9431-2289-435F-94D9-E8D4B01EA2ED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFFAB96F-C78A-4C5F-A250-98B316BC88B9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F64D1B41-4713-46A3-B09C-27D76B38C41A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5204DEB7-4072-4C93-87C1-2B1793C22F52}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{317C3573-ACCD-470E-A703-CAD9367CBA00}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF66E681-93B9-4AA2-B9A8-CC89ECEE7E32}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C47D798D-8BB7-4E42-9BE6-B2E1F85AB018}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FCBA2DE7-3F15-4DBC-B611-2E316BB8BA39}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CE6D022-1385-47AD-9D2E-F6A0A5ED8F68}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F70FD04D-0262-49B1-89C7-64F9CE49D4FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF94D6EC-C222-417D-9606-51D8B5E61C37}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E6FF7C4-1224-4466-B743-A33924EBAE62}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1E3F0E83-AA16-4855-8279-3655B8B8578E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C1E882A8-43F2-4062-B9CD-65558583BDAD}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{112C0DEC-E798-4A0D-93FC-AA53021263F2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{034C1260-4634-4964-A720-AB99B2B0ABD6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1B01E11-1541-4D4D-A75F-7363419BFF6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{914D265A-C0FC-4D2B-8081-890BE97F3285}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5DFC7EE3-82D7-4233-8D99-9B2FB450B67A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0A397452-7545-4EF6-B413-4217C9824662}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AD57161-90E1-497B-B4C6-6C0890B2E0D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2065AE46-4772-4229-9D2D-33F994A71794}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14031,7 +14031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B2608B-C713-4E04-83E9-253F154F2357}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D095FD6D-09B3-4167-B5AA-6F2C5C943EF1}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15283,18 +15283,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{588E6643-07AD-4119-8956-F54AF7B108DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFCC1363-A9EC-4B34-9BAE-D46E04419785}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C78EAFAE-FE3D-4DDB-9EDE-EB50C902CCD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE485450-0042-40B5-867B-584B67629A30}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F3FC8E8C-1B80-4012-AA9E-D50BB70210F0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E5EE469-E8AD-43C3-A7B6-E7A61FF90C78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{307A4215-F8C8-47F7-A1F5-5AE7A7EA452B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A870169-BC54-45F6-B96D-5DD20E9EC0DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F807160-7764-497C-A387-F023F761A383}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{838C5330-69AE-44BB-A82B-B39AC8FA1172}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41A826F5-0CA0-4CD0-9A29-F5E4FBDA91F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDDEC790-29D4-44E8-A8CF-92CE5AF70D81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C015929-E50E-4B17-9833-0CD79C7C9CE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC233768-D242-4D46-8EFA-C8B1B628A596}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D1C50478-F76D-4AFE-99D9-2F55E9A00BD9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5DAB7133-5BD6-4E8C-9460-655877B2624B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D4888DFA-3DC8-474B-8044-C384935B525A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4959CAF5-1A5B-474D-AE4B-E8EC336CB449}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4271A797-C015-4EF8-9D9B-2ED4C891B47E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74941D63-E874-408C-9C5A-0D0ACF4B988B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C68AE02-D9D8-4E37-92A8-DEC6E1A77CEB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CF878856-EBF3-44CA-BB50-AE889CC68065}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A515408E-EEEE-4E88-895B-1B395959CF47}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0E06297-19B9-4158-BE27-E295A13EE3E9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15307,7 +15307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD1D1CE-6C82-4284-8426-A55D621BB035}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576F719E-8A73-4371-AC2C-AAB161F6A2C5}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16559,18 +16559,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D49F3E67-B148-41AB-8EB4-F5F5CFCD3B86}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{635EF3CA-94F8-4563-A2AF-54E7C5B7BF3B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D50ED2C0-C957-4205-A99F-A757A4821AAB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{85B4E51A-BC34-473F-A8B8-E62451440D8F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8C973FD0-25DC-4EB2-B869-37E2ACAED168}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{124D4813-57ED-47DD-8408-809BFA8742EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32EB1F39-45BC-4550-AC4C-71B1ED66C315}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42E1A57E-EB41-447C-91B3-718D4C5DA86B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{494C6F41-8091-4A5C-AD57-14813ACE787A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C3A6ACF-F2FD-4718-9848-C9E84712ECF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F624D4F-8320-4311-AA2E-A2384A7A3D56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{751B4681-C641-4F31-AE0A-5A2E722517BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F721113-493B-405E-9449-91746705AB4B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4DBE512C-1518-4CE6-B844-D19358D0B617}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{33A547C9-8D39-4655-AEB0-DB8F60982E9B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66653C18-AEC0-4030-98AD-446E076F43E3}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{22178CD6-B1AA-48B9-BB60-01D917F7F650}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B535388-463A-492A-BD8D-DEE0B9C312F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D569FB85-881E-404F-B779-2409077EA68D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D786192-8BA6-413E-981C-5959A5399247}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4755D1C3-0070-49BB-A034-ED7278178130}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A538BA73-B295-4798-951B-EB36349E19DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2256634F-3E81-47AA-ABFA-34228DBBFC74}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E4407BE-3D19-45E6-BE4A-A5A8FC78434B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
